--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_14_9.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_14_9.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1195936.430623916</v>
+        <v>-1198575.777941938</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673435</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>14255873.27462081</v>
+        <v>14255873.2746208</v>
       </c>
     </row>
     <row r="11">
@@ -659,7 +659,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>181.4821493078639</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -674,10 +674,10 @@
         <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,7 +707,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>84.24691516365851</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -716,7 +716,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>77.72576072302729</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -832,7 +832,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>196.4421918270727</v>
+        <v>163.861720800264</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -893,25 +893,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>255.3957995506238</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>295.6240477752572</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -956,10 +956,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -993,7 +993,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1051,13 +1051,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>128.5266232709641</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -1069,10 +1069,10 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,28 +1099,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>127.7791209619803</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>75.45713216103701</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>9.858513800116544</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,10 +1181,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
@@ -1196,7 +1196,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1291,7 +1291,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>50.36860283745263</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1303,13 +1303,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1345,7 +1345,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>71.67037196991727</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1357,7 +1357,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1370,7 +1370,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1531,22 +1531,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>142.8873577254033</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012163</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>71.05846343488149</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1622,7 +1622,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1765,13 +1765,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>27.24739666248491</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -1783,7 +1783,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1816,10 +1816,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>161.1945470524445</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1895,7 +1895,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2065,10 +2065,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>45.16086499484859</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2135,7 +2135,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881287</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2239,25 +2239,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2290,10 +2290,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>91.87132188694</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2333,7 +2333,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2372,7 +2372,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2533,13 +2533,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>194.9085394018857</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>168.4805514670949</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2716,22 +2716,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,16 +2758,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>266.5786841116279</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2947,16 +2947,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>148.0280580960833</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3007,10 +3007,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>245.8267803122423</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3044,7 +3044,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3193,7 +3193,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F34" t="n">
         <v>121.1364005308915</v>
@@ -3202,10 +3202,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652583</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,16 +3232,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U34" t="n">
-        <v>261.8998268972044</v>
+        <v>261.8998268972053</v>
       </c>
       <c r="V34" t="n">
         <v>227.8529958317883</v>
@@ -3269,13 +3269,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G35" t="n">
         <v>409.8033385187866</v>
@@ -3439,10 +3439,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652626</v>
+        <v>56.9811888265258</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U37" t="n">
         <v>261.8998268972044</v>
@@ -3518,7 +3518,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3661,25 +3661,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C40" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D40" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F40" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G40" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H40" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652585</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808198</v>
+        <v>42.090599218082</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
@@ -3724,7 +3724,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X40" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y40" t="n">
         <v>194.3000058600551</v>
@@ -3800,7 +3800,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.2409687174118</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -3898,25 +3898,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C43" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F43" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G43" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808195</v>
+        <v>42.090599218082</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U43" t="n">
         <v>261.8998268972044</v>
@@ -3961,7 +3961,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X43" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y43" t="n">
         <v>194.3000058600551</v>
@@ -4141,7 +4141,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F46" t="n">
         <v>121.1364005308915</v>
@@ -4150,10 +4150,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U46" t="n">
         <v>261.8998268972044</v>
@@ -4195,7 +4195,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W46" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X46" t="n">
         <v>201.4250078969974</v>
@@ -4304,37 +4304,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2175.739488336033</v>
+        <v>1621.991392838317</v>
       </c>
       <c r="C2" t="n">
-        <v>1992.424186004858</v>
+        <v>1621.991392838317</v>
       </c>
       <c r="D2" t="n">
-        <v>1634.158487398107</v>
+        <v>1263.725694231566</v>
       </c>
       <c r="E2" t="n">
-        <v>1248.370234799863</v>
+        <v>877.9374416333219</v>
       </c>
       <c r="F2" t="n">
-        <v>837.3843300102556</v>
+        <v>466.9515368437143</v>
       </c>
       <c r="G2" t="n">
-        <v>421.6795797345444</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H2" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I2" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816088</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872915</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M2" t="n">
         <v>1220.470313923562</v>
@@ -4355,25 +4355,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2562.339328400155</v>
+        <v>2477.24143429545</v>
       </c>
       <c r="T2" t="n">
-        <v>2562.339328400155</v>
+        <v>2477.24143429545</v>
       </c>
       <c r="U2" t="n">
-        <v>2562.339328400155</v>
+        <v>2477.24143429545</v>
       </c>
       <c r="V2" t="n">
-        <v>2562.339328400155</v>
+        <v>2398.73056487825</v>
       </c>
       <c r="W2" t="n">
-        <v>2562.339328400155</v>
+        <v>2398.73056487825</v>
       </c>
       <c r="X2" t="n">
-        <v>2562.339328400155</v>
+        <v>2398.73056487825</v>
       </c>
       <c r="Y2" t="n">
-        <v>2562.339328400155</v>
+        <v>2008.591232902438</v>
       </c>
     </row>
     <row r="3">
@@ -4383,22 +4383,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E3" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F3" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182524</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
         <v>71.67401812057901</v>
@@ -4410,7 +4410,7 @@
         <v>238.4273302370161</v>
       </c>
       <c r="K3" t="n">
-        <v>590.20497511435</v>
+        <v>590.2049751143501</v>
       </c>
       <c r="L3" t="n">
         <v>884.9085321458217</v>
@@ -4440,16 +4440,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>665.9284545426499</v>
+        <v>1443.082764731815</v>
       </c>
       <c r="C4" t="n">
-        <v>496.992271614743</v>
+        <v>1274.146581803908</v>
       </c>
       <c r="D4" t="n">
-        <v>346.8756322024072</v>
+        <v>1124.029942391572</v>
       </c>
       <c r="E4" t="n">
-        <v>346.8756322024072</v>
+        <v>1124.029942391572</v>
       </c>
       <c r="F4" t="n">
-        <v>199.9856847044969</v>
+        <v>977.1399948936618</v>
       </c>
       <c r="G4" t="n">
-        <v>199.9856847044969</v>
+        <v>977.1399948936618</v>
       </c>
       <c r="H4" t="n">
-        <v>51.24678656800311</v>
+        <v>977.1399948936618</v>
       </c>
       <c r="I4" t="n">
-        <v>51.24678656800311</v>
+        <v>977.1399948936618</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312199</v>
+        <v>1002.609167878781</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020475</v>
+        <v>1174.299679627706</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693234</v>
+        <v>1449.530858294982</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096587</v>
+        <v>1750.112669035317</v>
       </c>
       <c r="N4" t="n">
-        <v>1123.088724245823</v>
+        <v>2048.981932571481</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999035</v>
+        <v>2309.019775324693</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171024</v>
+        <v>2508.006390496682</v>
       </c>
       <c r="Q4" t="n">
-        <v>1636.446120074497</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R4" t="n">
-        <v>1636.446120074497</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S4" t="n">
-        <v>1636.446120074497</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T4" t="n">
-        <v>1636.446120074497</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U4" t="n">
-        <v>1438.019663683515</v>
+        <v>2396.822438702919</v>
       </c>
       <c r="V4" t="n">
-        <v>1183.335175477628</v>
+        <v>2142.137950497032</v>
       </c>
       <c r="W4" t="n">
-        <v>893.9180054406672</v>
+        <v>1852.720780460072</v>
       </c>
       <c r="X4" t="n">
-        <v>665.9284545426499</v>
+        <v>1624.731229562054</v>
       </c>
       <c r="Y4" t="n">
-        <v>665.9284545426499</v>
+        <v>1624.731229562054</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1452.155307492517</v>
+        <v>1112.520734025445</v>
       </c>
       <c r="C5" t="n">
-        <v>1083.192790552105</v>
+        <v>1112.520734025445</v>
       </c>
       <c r="D5" t="n">
-        <v>724.9270919453545</v>
+        <v>754.2550354186944</v>
       </c>
       <c r="E5" t="n">
-        <v>724.9270919453545</v>
+        <v>368.4667828204502</v>
       </c>
       <c r="F5" t="n">
-        <v>466.9515368437143</v>
+        <v>361.5212820712467</v>
       </c>
       <c r="G5" t="n">
-        <v>51.24678656800311</v>
+        <v>349.8569358359397</v>
       </c>
       <c r="H5" t="n">
         <v>51.24678656800311</v>
@@ -4568,10 +4568,10 @@
         <v>187.5281822362817</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816086</v>
+        <v>442.5171852816082</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872917</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M5" t="n">
         <v>1220.470313923562</v>
@@ -4595,22 +4595,22 @@
         <v>2437.640120926626</v>
       </c>
       <c r="T5" t="n">
-        <v>2228.89447953245</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U5" t="n">
-        <v>2228.89447953245</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="V5" t="n">
-        <v>2228.89447953245</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="W5" t="n">
-        <v>2228.89447953245</v>
+        <v>1876.125824262336</v>
       </c>
       <c r="X5" t="n">
-        <v>2228.89447953245</v>
+        <v>1502.660066001257</v>
       </c>
       <c r="Y5" t="n">
-        <v>1838.755147556638</v>
+        <v>1112.520734025445</v>
       </c>
     </row>
     <row r="6">
@@ -4638,34 +4638,34 @@
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057902</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I6" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
-        <v>113.5972052500113</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>298.3188265310613</v>
+        <v>614.5430248380226</v>
       </c>
       <c r="L6" t="n">
-        <v>593.0223835625329</v>
+        <v>909.2465818694943</v>
       </c>
       <c r="M6" t="n">
-        <v>1140.868925009994</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N6" t="n">
-        <v>1528.154053606939</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O6" t="n">
-        <v>1860.224488783101</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P6" t="n">
-        <v>2422.685363568936</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q6" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R6" t="n">
         <v>2562.339328400155</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>918.7469765594642</v>
+        <v>514.036292340028</v>
       </c>
       <c r="C7" t="n">
-        <v>918.7469765594642</v>
+        <v>514.036292340028</v>
       </c>
       <c r="D7" t="n">
-        <v>768.6303371471284</v>
+        <v>514.036292340028</v>
       </c>
       <c r="E7" t="n">
-        <v>620.7172435647353</v>
+        <v>366.1231987576349</v>
       </c>
       <c r="F7" t="n">
-        <v>473.8272960668249</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G7" t="n">
-        <v>305.8408313751036</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H7" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I7" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K7" t="n">
         <v>248.4064713020475</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q7" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1533.862713590079</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S7" t="n">
-        <v>1337.23396574994</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T7" t="n">
-        <v>1337.23396574994</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U7" t="n">
-        <v>1337.23396574994</v>
+        <v>1347.327782578335</v>
       </c>
       <c r="V7" t="n">
-        <v>1337.23396574994</v>
+        <v>1092.643294372448</v>
       </c>
       <c r="W7" t="n">
-        <v>1047.81679571298</v>
+        <v>1092.643294372448</v>
       </c>
       <c r="X7" t="n">
-        <v>1047.81679571298</v>
+        <v>864.6537434744309</v>
       </c>
       <c r="Y7" t="n">
-        <v>918.7469765594642</v>
+        <v>643.8611643309008</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1232.150970528558</v>
+        <v>1611.504630229389</v>
       </c>
       <c r="C8" t="n">
-        <v>1232.150970528558</v>
+        <v>1242.542113288978</v>
       </c>
       <c r="D8" t="n">
-        <v>1232.150970528558</v>
+        <v>884.2764146822271</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>498.4881620839829</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>491.5426613347794</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>76.4702111797759</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>76.4702111797759</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520488</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794324</v>
+        <v>3072.075344883008</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450753</v>
+        <v>2741.012457539437</v>
       </c>
       <c r="W8" t="n">
-        <v>2071.975386180639</v>
+        <v>2388.243802269323</v>
       </c>
       <c r="X8" t="n">
-        <v>1698.509627919559</v>
+        <v>2388.243802269323</v>
       </c>
       <c r="Y8" t="n">
-        <v>1308.370295943747</v>
+        <v>1998.104470293511</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4857,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927786</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064622</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
@@ -4884,10 +4884,10 @@
         <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158133</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4899,22 +4899,22 @@
         <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4923,10 +4923,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>973.5548741173881</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C10" t="n">
-        <v>922.6774975139006</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D10" t="n">
-        <v>772.5608581015648</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E10" t="n">
-        <v>624.6477645191717</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F10" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4993,19 +4993,19 @@
         <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1927.294548088493</v>
+        <v>1854.900232967364</v>
       </c>
       <c r="V10" t="n">
-        <v>1672.610059882606</v>
+        <v>1600.215744761477</v>
       </c>
       <c r="W10" t="n">
-        <v>1383.192889845645</v>
+        <v>1310.798574724517</v>
       </c>
       <c r="X10" t="n">
-        <v>1155.203338947628</v>
+        <v>1082.809023826499</v>
       </c>
       <c r="Y10" t="n">
-        <v>1155.203338947628</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="11">
@@ -5018,7 +5018,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5027,61 +5027,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111719</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
         <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,31 +5112,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273912</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>245.230692780394</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516147</v>
       </c>
       <c r="L12" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167374</v>
       </c>
       <c r="M12" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793926</v>
       </c>
       <c r="N12" t="n">
-        <v>1814.118720444889</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>950.7540666811333</v>
+        <v>696.708435085168</v>
       </c>
       <c r="C13" t="n">
-        <v>781.8178837532264</v>
+        <v>527.7722521572612</v>
       </c>
       <c r="D13" t="n">
-        <v>631.7012443408906</v>
+        <v>527.7722521572612</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>379.859158574868</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>379.859158574868</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782959</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797749</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="T13" t="n">
-        <v>2197.062545487567</v>
+        <v>2160.315914855605</v>
       </c>
       <c r="U13" t="n">
-        <v>2125.286319795768</v>
+        <v>1871.240688199803</v>
       </c>
       <c r="V13" t="n">
-        <v>1870.601831589881</v>
+        <v>1616.556199993916</v>
       </c>
       <c r="W13" t="n">
-        <v>1581.18466155292</v>
+        <v>1327.139029956955</v>
       </c>
       <c r="X13" t="n">
-        <v>1353.195110654903</v>
+        <v>1099.149479058938</v>
       </c>
       <c r="Y13" t="n">
-        <v>1132.402531511373</v>
+        <v>878.3568999154078</v>
       </c>
     </row>
     <row r="14">
@@ -5258,37 +5258,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H14" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5297,7 +5297,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
@@ -5352,28 +5352,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>221.3431781811722</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>716.6687843969308</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>733.4550657171301</v>
+        <v>640.1060525954244</v>
       </c>
       <c r="C16" t="n">
-        <v>705.9324428257312</v>
+        <v>640.1060525954244</v>
       </c>
       <c r="D16" t="n">
-        <v>555.8158034133954</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="E16" t="n">
-        <v>407.9027098310023</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F16" t="n">
-        <v>261.0127623330919</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5464,22 +5464,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1907.987318831765</v>
+        <v>1814.638305710059</v>
       </c>
       <c r="V16" t="n">
-        <v>1653.302830625878</v>
+        <v>1559.953817504172</v>
       </c>
       <c r="W16" t="n">
-        <v>1363.885660588917</v>
+        <v>1270.536647467212</v>
       </c>
       <c r="X16" t="n">
-        <v>1135.8961096909</v>
+        <v>1042.547096569194</v>
       </c>
       <c r="Y16" t="n">
-        <v>915.1035305473698</v>
+        <v>821.7545174256642</v>
       </c>
     </row>
     <row r="17">
@@ -5501,7 +5501,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5510,16 +5510,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
         <v>2206.558663014779</v>
@@ -5549,13 +5549,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5589,28 +5589,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1072.713683962606</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5713,10 +5713,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1098.667160263527</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>1098.667160263527</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5747,7 +5747,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111715</v>
@@ -5826,22 +5826,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>929.7309773356195</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408906</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5938,22 +5938,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>2104.263230450254</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1849.578742244367</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1560.161572207407</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1332.172021309389</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>1111.379442165859</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5969,67 +5969,67 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U23" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6060,28 +6060,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>352.5519571452614</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6124,25 +6124,25 @@
         <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G25" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6181,10 +6181,10 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X25" t="n">
         <v>974.1018203925706</v>
@@ -6200,22 +6200,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
@@ -6257,19 +6257,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6300,25 +6300,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>352.5519571452614</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>783.5579673960132</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>614.6217844681063</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>464.5051450557705</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>464.5051450557705</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>317.6151975578602</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1958.090220510648</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1703.405732304761</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1413.9885622678</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1185.999011369783</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>965.2064322262529</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6458,13 +6458,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6552,13 +6552,13 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1896.176478190825</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6595,13 +6595,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>951.777212765616</v>
+        <v>803.2707707770319</v>
       </c>
       <c r="C31" t="n">
-        <v>782.8410298377091</v>
+        <v>634.334587849125</v>
       </c>
       <c r="D31" t="n">
-        <v>632.7243904253734</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E31" t="n">
         <v>484.8112968429803</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1689.976512844124</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1400.559342807163</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="X31" t="n">
-        <v>1172.569791909146</v>
+        <v>1205.711814750802</v>
       </c>
       <c r="Y31" t="n">
-        <v>951.777212765616</v>
+        <v>984.9192356072716</v>
       </c>
     </row>
     <row r="32">
@@ -6680,19 +6680,19 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
         <v>95.34095638192593</v>
@@ -6704,16 +6704,16 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6832,46 +6832,46 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319323</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C34" t="n">
         <v>782.5512955656816</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150022</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H34" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K34" t="n">
-        <v>483.8255460380729</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L34" t="n">
         <v>898.2659412311325</v>
       </c>
       <c r="M34" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N34" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O34" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P34" t="n">
         <v>2496.057455973196</v>
@@ -6889,16 +6889,16 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U34" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V34" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W34" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X34" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y34" t="n">
         <v>1084.076049400516</v>
@@ -6917,10 +6917,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
         <v>793.7736536168611</v>
@@ -6935,22 +6935,22 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319328</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656822</v>
+        <v>782.5512955656819</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150028</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942659</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580119</v>
+        <v>411.2214559580117</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345481</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H37" t="n">
-        <v>151.3734194384024</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7108,13 +7108,13 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O37" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P37" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q37" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717216</v>
       </c>
       <c r="R37" t="n">
         <v>2596.781734931274</v>
@@ -7129,7 +7129,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W37" t="n">
         <v>1483.798285518751</v>
@@ -7148,10 +7148,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004712</v>
@@ -7160,22 +7160,22 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7205,19 +7205,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7321,22 +7321,22 @@
         <v>411.2214559580116</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H40" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311324</v>
+        <v>898.265941231132</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7354,13 +7354,13 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S40" t="n">
         <v>2438.456847547834</v>
       </c>
       <c r="T40" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U40" t="n">
         <v>1978.840049838286</v>
@@ -7400,19 +7400,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7430,28 +7430,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7482,28 +7482,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797186</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1814.118720444889</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
         <v>2553.061288060775</v>
@@ -7543,34 +7543,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.957531531932</v>
+        <v>926.9575315319321</v>
       </c>
       <c r="C43" t="n">
         <v>782.5512955656814</v>
       </c>
       <c r="D43" t="n">
-        <v>656.964603115002</v>
+        <v>656.9646031150019</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942651</v>
+        <v>533.581456494265</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580111</v>
+        <v>411.2214559580109</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345476</v>
+        <v>268.555303634547</v>
       </c>
       <c r="H43" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L43" t="n">
         <v>898.2659412311323</v>
@@ -7588,7 +7588,7 @@
         <v>2496.057455973196</v>
       </c>
       <c r="Q43" t="n">
-        <v>2639.297491717214</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
         <v>2596.781734931273</v>
@@ -7597,22 +7597,22 @@
         <v>2438.456847547834</v>
       </c>
       <c r="T43" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U43" t="n">
         <v>1978.840049838285</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594054</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W43" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y43" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="44">
@@ -7634,16 +7634,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
         <v>378.192580311172</v>
@@ -7786,31 +7786,31 @@
         <v>782.5512955656817</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150022</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H46" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384019</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7825,16 +7825,16 @@
         <v>2496.057455973196</v>
       </c>
       <c r="Q46" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717214</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S46" t="n">
         <v>2438.456847547834</v>
       </c>
       <c r="T46" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U46" t="n">
         <v>1978.840049838286</v>
@@ -8058,7 +8058,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>168.7434581780645</v>
+        <v>168.7434581780647</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8292,16 +8292,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>193.3273467878349</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>186.4490126143851</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -8310,13 +8310,13 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>45.52166981132082</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -9164,7 +9164,7 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -9407,7 +9407,7 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -22547,7 +22547,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>183.7907424631437</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -22562,10 +22562,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22598,22 +22598,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>192.7093815549394</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>250.0264977471076</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -23419,22 +23419,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182092</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465707</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>22.63678056686558</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,13 +23464,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>215.1260109543626</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23653,13 +23653,13 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>139.9994244361429</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465709</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23671,7 +23671,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23704,10 +23704,10 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>124.9899273367996</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23887,28 +23887,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23953,10 +23953,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>180.5487903941886</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24127,25 +24127,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>63.36835372228749</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24178,10 +24178,10 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>194.3131525023041</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24421,13 +24421,13 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>57.22910392194225</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24604,22 +24604,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,16 +24646,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>19.60579027761622</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24835,16 +24835,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>0.5874149221290565</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24883,10 +24883,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24895,10 +24895,10 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>6.310863011585695</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25129,7 +25129,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>-6.983302952577993e-13</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25330,7 +25330,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>-4.334310688136611e-13</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -26311,16 +26311,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>152326.9268048895</v>
+        <v>152326.9268048894</v>
       </c>
       <c r="C2" t="n">
         <v>184734.3982194636</v>
       </c>
       <c r="D2" t="n">
-        <v>184734.3982194639</v>
+        <v>184734.3982194638</v>
       </c>
       <c r="E2" t="n">
-        <v>181607.9849302514</v>
+        <v>181607.9849302513</v>
       </c>
       <c r="F2" t="n">
         <v>181607.9849302513</v>
@@ -26329,7 +26329,7 @@
         <v>181607.9849302514</v>
       </c>
       <c r="H2" t="n">
-        <v>181607.9849302514</v>
+        <v>181607.9849302513</v>
       </c>
       <c r="I2" t="n">
         <v>181607.9849302513</v>
@@ -26338,7 +26338,7 @@
         <v>181607.9849302514</v>
       </c>
       <c r="K2" t="n">
-        <v>181607.9849302514</v>
+        <v>181607.9849302513</v>
       </c>
       <c r="L2" t="n">
         <v>184734.3982194636</v>
@@ -26353,7 +26353,7 @@
         <v>184734.3982194637</v>
       </c>
       <c r="P2" t="n">
-        <v>184734.3982194637</v>
+        <v>184734.3982194636</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.78357592</v>
+        <v>1114751.783575919</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>192627.1404403379</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073558</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26393,10 +26393,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>67721.68800182248</v>
+        <v>67721.68800182256</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551184</v>
+        <v>85055.0279355119</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,28 +26415,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>54516.86175496501</v>
+        <v>54516.86175496492</v>
       </c>
       <c r="C4" t="n">
         <v>136726.2736921025</v>
       </c>
       <c r="D4" t="n">
-        <v>88524.23512810789</v>
+        <v>88524.23512810784</v>
       </c>
       <c r="E4" t="n">
-        <v>9337.20035675659</v>
+        <v>9337.200356756592</v>
       </c>
       <c r="F4" t="n">
         <v>9337.20035675659</v>
       </c>
       <c r="G4" t="n">
-        <v>9337.200356756575</v>
+        <v>9337.200356756606</v>
       </c>
       <c r="H4" t="n">
-        <v>9337.200356756603</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="I4" t="n">
-        <v>9337.200356756613</v>
+        <v>9337.200356756643</v>
       </c>
       <c r="J4" t="n">
         <v>9337.200356756592</v>
@@ -26445,19 +26445,19 @@
         <v>9337.200356756592</v>
       </c>
       <c r="L4" t="n">
-        <v>17328.05961985008</v>
+        <v>17328.05961985006</v>
       </c>
       <c r="M4" t="n">
-        <v>17328.05961985008</v>
+        <v>17328.05961985009</v>
       </c>
       <c r="N4" t="n">
+        <v>17328.05961985007</v>
+      </c>
+      <c r="O4" t="n">
+        <v>17328.05961985005</v>
+      </c>
+      <c r="P4" t="n">
         <v>17328.05961985006</v>
-      </c>
-      <c r="O4" t="n">
-        <v>17328.05961985012</v>
-      </c>
-      <c r="P4" t="n">
-        <v>17328.05961985007</v>
       </c>
     </row>
     <row r="5">
@@ -26476,7 +26476,7 @@
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="F5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1109879.49096584</v>
+        <v>-1110239.573981557</v>
       </c>
       <c r="C6" t="n">
-        <v>-44929.6479124836</v>
+        <v>-44929.64791248358</v>
       </c>
       <c r="D6" t="n">
         <v>-204350.9179103753</v>
       </c>
       <c r="E6" t="n">
-        <v>-254264.2070577675</v>
+        <v>-254298.9449832039</v>
       </c>
       <c r="F6" t="n">
-        <v>71148.25474958761</v>
+        <v>71113.51682415258</v>
       </c>
       <c r="G6" t="n">
-        <v>71148.25474958769</v>
+        <v>71113.51682415197</v>
       </c>
       <c r="H6" t="n">
-        <v>71148.25474958766</v>
+        <v>71113.51682415188</v>
       </c>
       <c r="I6" t="n">
-        <v>71148.25474958758</v>
+        <v>71113.5168241519</v>
       </c>
       <c r="J6" t="n">
-        <v>-96456.92306039482</v>
+        <v>-96491.66098583057</v>
       </c>
       <c r="K6" t="n">
-        <v>71148.25474958769</v>
+        <v>71113.51682415194</v>
       </c>
       <c r="L6" t="n">
-        <v>-3479.465256124327</v>
+        <v>-3479.465256124473</v>
       </c>
       <c r="M6" t="n">
-        <v>-20812.80518981375</v>
+        <v>-20812.80518981376</v>
       </c>
       <c r="N6" t="n">
+        <v>64242.22274569815</v>
+      </c>
+      <c r="O6" t="n">
+        <v>64242.22274569824</v>
+      </c>
+      <c r="P6" t="n">
         <v>64242.22274569818</v>
-      </c>
-      <c r="O6" t="n">
-        <v>64242.22274569819</v>
-      </c>
-      <c r="P6" t="n">
-        <v>64242.22274569821</v>
       </c>
     </row>
   </sheetData>
@@ -26713,19 +26713,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="3">
@@ -26735,10 +26735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>934.0648921175391</v>
+      </c>
+      <c r="C3" t="n">
         <v>934.0648921175392</v>
-      </c>
-      <c r="C3" t="n">
-        <v>934.0648921175391</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26793,10 +26793,10 @@
         <v>640.5848321000389</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>155.7118084757592</v>
+        <v>155.7118084757591</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483761</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27015,10 +27015,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>190.8166233022538</v>
+        <v>190.816623302254</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.306832697356</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.584832100039</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022538</v>
+        <v>190.816623302254</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27261,10 +27261,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022538</v>
+        <v>190.816623302254</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27427,19 +27427,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>39.20530023513587</v>
       </c>
       <c r="T2" t="n">
-        <v>13.94880342529439</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27552,7 +27552,7 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I4" t="n">
         <v>104.7965952039006</v>
@@ -27591,7 +27591,7 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>89.78496229412787</v>
+        <v>122.3654333209366</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27613,25 +27613,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>151.4802461910876</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>5.394504787148207</v>
       </c>
       <c r="I5" t="n">
         <v>65.70991267247049</v>
@@ -27676,10 +27676,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27771,13 +27771,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>51.30535691097325</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -27789,10 +27789,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,28 +27819,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>90.80553239011446</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>307.2767095024436</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>31.71841597280941</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,10 +27901,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27916,7 +27916,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28011,7 +28011,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>116.8782182611752</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28023,13 +28023,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28065,7 +28065,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>214.5414662356956</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28077,7 +28077,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28090,7 +28090,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -28138,7 +28138,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>-9.521272659185342e-13</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -28251,7 +28251,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>3.157888765296472e-12</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -28342,7 +28342,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28491,7 +28491,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>-1.696776052995119e-12</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -29053,7 +29053,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -29092,7 +29092,7 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -29764,7 +29764,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="35">
@@ -29989,13 +29989,13 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
         <v>5.115907697472721e-13</v>
-      </c>
-      <c r="E35" t="n">
-        <v>0</v>
-      </c>
-      <c r="F35" t="n">
-        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="38">
@@ -30238,7 +30238,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="41">
@@ -30520,7 +30520,7 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
   </sheetData>
@@ -31042,43 +31042,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L2" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T2" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31121,10 +31121,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31133,7 +31133,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M3" t="n">
         <v>509.0653662040588</v>
@@ -31142,25 +31142,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P3" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R3" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31203,7 +31203,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335771</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31218,10 +31218,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31233,13 +31233,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31279,43 +31279,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767379</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T5" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U5" t="n">
         <v>0.3004027793744847</v>
@@ -31358,10 +31358,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31370,7 +31370,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M6" t="n">
         <v>509.0653662040588</v>
@@ -31379,25 +31379,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P6" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R6" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31440,7 +31440,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31455,10 +31455,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31470,13 +31470,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348436</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135343</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663285</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817579</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162565</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.646344017568</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159431</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460033</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236512</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651529</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078748</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659451</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521102</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.307619600775</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420756</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422588</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473075</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862125</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192539</v>
       </c>
       <c r="O12" t="n">
-        <v>225.4828684302377</v>
+        <v>700.0808204437246</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742441</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588155</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392047</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.493960610679</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417316</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670479</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T13" t="n">
-        <v>10.54013910099322</v>
+        <v>10.54013910099323</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32072,31 +32072,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>266.6561007250664</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32309,7 +32309,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
@@ -32321,19 +32321,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>405.6377363145776</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32546,7 +32546,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
@@ -32555,7 +32555,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>339.3493584601592</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
@@ -32564,7 +32564,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32783,16 +32783,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
@@ -32801,10 +32801,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -33020,16 +33020,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
@@ -33038,10 +33038,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33178,7 +33178,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
@@ -33196,7 +33196,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
         <v>790.8204499236507</v>
@@ -33272,16 +33272,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>357.9244589488886</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
@@ -33889,7 +33889,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -34205,13 +34205,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
@@ -34223,10 +34223,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34366,7 +34366,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
         <v>699.5441750817575</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K2" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P2" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,16 +34775,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>189.0712562313263</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K3" t="n">
-        <v>355.3309544215493</v>
+        <v>355.3309544215495</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N3" t="n">
         <v>391.1970995928739</v>
@@ -34793,13 +34793,13 @@
         <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235323</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q3" t="n">
-        <v>326.5580100667037</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977092</v>
+        <v>24.58388860977091</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,10 +34854,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K4" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L4" t="n">
         <v>278.0112915831069</v>
@@ -34866,7 +34866,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O4" t="n">
         <v>262.6644876295069</v>
@@ -34875,7 +34875,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805403</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P5" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,16 +35012,16 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>62.98022089091739</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K6" t="n">
-        <v>186.5874962434848</v>
+        <v>379.9148430313197</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M6" t="n">
-        <v>553.3803448964255</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N6" t="n">
         <v>391.1970995928739</v>
@@ -35030,13 +35030,13 @@
         <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>568.1422977634694</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q6" t="n">
-        <v>116.4807223308545</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R6" t="n">
-        <v>24.58388860977091</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35091,10 +35091,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K7" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
         <v>278.0112915831069</v>
@@ -35103,7 +35103,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
         <v>262.6644876295069</v>
@@ -35112,7 +35112,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317369</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396422</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367773</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902953</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193523</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243165</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902406</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,31 +35483,31 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774958</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678998</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674334</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641942</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359206</v>
       </c>
       <c r="O12" t="n">
-        <v>82.88662398579324</v>
+        <v>557.4845759992802</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,25 +35565,25 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295347</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191316</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010453</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060456</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066251</v>
       </c>
       <c r="Q13" t="n">
         <v>120.4022572998984</v>
@@ -35720,31 +35720,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>128.8146617507074</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O15" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35884,7 +35884,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L17" t="n">
         <v>632.0799921462688</v>
@@ -35957,7 +35957,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35969,19 +35969,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>274.2960242312443</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36127,7 +36127,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
         <v>751.8584478193516</v>
@@ -36194,7 +36194,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36203,7 +36203,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>200.7949786802851</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
@@ -36212,7 +36212,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36431,16 +36431,16 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>261.3487819164541</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
@@ -36449,10 +36449,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36668,16 +36668,16 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>261.3487819164541</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
@@ -36686,10 +36686,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36826,7 +36826,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
@@ -36844,7 +36844,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
         <v>559.5874541683811</v>
@@ -36920,16 +36920,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>226.5827468655553</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37227,10 +37227,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K34" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L34" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M34" t="n">
         <v>450.5570744930848</v>
@@ -37245,7 +37245,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37464,10 +37464,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M37" t="n">
         <v>450.5570744930848</v>
@@ -37537,7 +37537,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37698,13 +37698,13 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>105.3311307549931</v>
+        <v>105.331130754993</v>
       </c>
       <c r="K40" t="n">
         <v>288.6172359016746</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M40" t="n">
         <v>450.5570744930848</v>
@@ -37719,7 +37719,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37853,13 +37853,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
@@ -37871,10 +37871,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37935,16 +37935,16 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>105.3311307549931</v>
+        <v>105.331130754993</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N43" t="n">
         <v>445.9107804819471</v>
@@ -37956,7 +37956,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,7 +38014,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
         <v>479.454324036777</v>
@@ -38175,19 +38175,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N46" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P46" t="n">
         <v>319.9164207986647</v>
